--- a/bao cao dot 4/Test-cases.xlsx
+++ b/bao cao dot 4/Test-cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/47e8b75f4313bd8c/Desktop/document/bao cao dot 4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{F258B75C-FFFD-4254-BD53-7D19F84C84C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F43EEE0-584D-4E60-B43D-2BFF6C463129}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{F258B75C-FFFD-4254-BD53-7D19F84C84C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91BDC90B-7935-4E3D-BA0D-43F68E5DE360}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="426">
   <si>
     <t>Thiết kế</t>
   </si>
@@ -1290,6 +1290,42 @@
   </si>
   <si>
     <t>Ngày kết thúc bé hơn ngày bắt đầu</t>
+  </si>
+  <si>
+    <t>Xóa chủ đề đã có bài viết</t>
+  </si>
+  <si>
+    <t>Thông báo: Không thể xóa chủ đề đã có bài đăng</t>
+  </si>
+  <si>
+    <t>Ẩn chủ đề</t>
+  </si>
+  <si>
+    <t>Thay đổi trạng thái chủ đề thành ẩn</t>
+  </si>
+  <si>
+    <t>Xóa danh mục đã có sản phẩm</t>
+  </si>
+  <si>
+    <t>Thông báo: Không thể xóa danh mục đã có sản phẩm</t>
+  </si>
+  <si>
+    <t>Ẩn danh mục</t>
+  </si>
+  <si>
+    <t>Thay đổi trạng thái danh mục thành ẩn</t>
+  </si>
+  <si>
+    <t>Xóa thương hiệu đã có sản phẩm</t>
+  </si>
+  <si>
+    <t>Thông báo: Không thể xóa thương hiệu đã có sản phẩm</t>
+  </si>
+  <si>
+    <t>Ẩn thương hiệu</t>
+  </si>
+  <si>
+    <t>Thay đổi trạng thái thương hiệu hành ẩn</t>
   </si>
 </sst>
 </file>
@@ -1428,7 +1464,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1480,6 +1516,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1584,6 +1623,10 @@
 </file>
 
 <file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -1909,10 +1952,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F313"/>
+  <dimension ref="B2:F319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B260" sqref="B260"/>
+    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E173" sqref="E173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4282,13 +4325,11 @@
         <v>30.1</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D171" s="6" t="s">
-        <v>321</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="D171" s="6"/>
       <c r="E171" s="5" t="s">
-        <v>325</v>
+        <v>423</v>
       </c>
       <c r="F171" s="6"/>
     </row>
@@ -4297,319 +4338,323 @@
         <v>30.2</v>
       </c>
       <c r="C172" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D172" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="E172" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="F172" s="6"/>
+    </row>
+    <row r="173" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B173" s="6">
+        <v>30.3</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="D173" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="E173" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="F173" s="6"/>
+    </row>
+    <row r="174" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B174" s="19">
+        <v>30.5</v>
+      </c>
+      <c r="C174" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D172" s="5" t="s">
+      <c r="D174" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E172" s="5" t="s">
+      <c r="E174" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F172" s="6"/>
-    </row>
-    <row r="173" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B173" s="3">
+      <c r="F174" s="6"/>
+    </row>
+    <row r="175" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B175" s="3">
         <v>31</v>
       </c>
-      <c r="C173" s="3" t="s">
+      <c r="C175" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D173" s="12"/>
-      <c r="E173" s="12"/>
-      <c r="F173" s="12"/>
-    </row>
-    <row r="174" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B174" s="6">
+      <c r="D175" s="12"/>
+      <c r="E175" s="12"/>
+      <c r="F175" s="12"/>
+    </row>
+    <row r="176" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B176" s="6">
         <v>31.1</v>
       </c>
-      <c r="C174" s="5" t="s">
+      <c r="C176" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D174" s="6" t="s">
+      <c r="D176" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="E174" s="5" t="s">
+      <c r="E176" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="F174" s="6"/>
-    </row>
-    <row r="175" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B175" s="6">
-        <v>31.2</v>
-      </c>
-      <c r="C175" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D175" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E175" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F175" s="6"/>
-    </row>
-    <row r="176" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B176" s="3">
-        <v>32</v>
-      </c>
-      <c r="C176" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D176" s="12"/>
-      <c r="E176" s="12"/>
-      <c r="F176" s="12"/>
+      <c r="F176" s="6"/>
     </row>
     <row r="177" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B177" s="6">
-        <v>32.1</v>
+        <v>31.2</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D177" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="D177" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="E177" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F177" s="6"/>
     </row>
     <row r="178" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B178" s="6">
-        <v>32.200000000000003</v>
-      </c>
-      <c r="C178" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D178" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="E178" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="F178" s="6"/>
+      <c r="B178" s="3">
+        <v>32</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D178" s="12"/>
+      <c r="E178" s="12"/>
+      <c r="F178" s="12"/>
     </row>
     <row r="179" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B179" s="6">
-        <v>32.299999999999997</v>
+        <v>32.1</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D179" s="5" t="s">
-        <v>333</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D179" s="6"/>
       <c r="E179" s="5" t="s">
-        <v>334</v>
+        <v>8</v>
       </c>
       <c r="F179" s="6"/>
     </row>
     <row r="180" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B180" s="6">
-        <v>32.4</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>14</v>
+        <v>138</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E180" s="5" t="s">
-        <v>15</v>
+        <v>330</v>
+      </c>
+      <c r="E180" s="6" t="s">
+        <v>322</v>
       </c>
       <c r="F180" s="6"/>
     </row>
     <row r="181" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B181" s="3">
-        <v>33</v>
-      </c>
-      <c r="C181" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D181" s="12"/>
-      <c r="E181" s="12"/>
-      <c r="F181" s="12"/>
+      <c r="B181" s="6">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D181" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="E181" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="F181" s="6"/>
     </row>
     <row r="182" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B182" s="6">
-        <v>33.1</v>
+        <v>32.4</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D182" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="D182" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="E182" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F182" s="6"/>
     </row>
     <row r="183" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B183" s="6">
-        <v>33.200000000000003</v>
-      </c>
-      <c r="C183" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D183" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="E183" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="F183" s="6"/>
+      <c r="B183" s="3">
+        <v>33</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D183" s="12"/>
+      <c r="E183" s="12"/>
+      <c r="F183" s="12"/>
     </row>
     <row r="184" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B184" s="6">
-        <v>33.299999999999997</v>
+        <v>33.1</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D184" s="5" t="s">
-        <v>336</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D184" s="6"/>
       <c r="E184" s="5" t="s">
-        <v>335</v>
+        <v>8</v>
       </c>
       <c r="F184" s="6"/>
     </row>
     <row r="185" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B185" s="6">
-        <v>33.4</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>14</v>
+        <v>138</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E185" s="5" t="s">
-        <v>15</v>
+        <v>330</v>
+      </c>
+      <c r="E185" s="6" t="s">
+        <v>322</v>
       </c>
       <c r="F185" s="6"/>
     </row>
     <row r="186" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B186" s="3">
-        <v>34</v>
-      </c>
-      <c r="C186" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D186" s="12"/>
-      <c r="E186" s="12"/>
-      <c r="F186" s="12"/>
+      <c r="B186" s="6">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D186" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="E186" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="F186" s="6"/>
     </row>
     <row r="187" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B187" s="6">
+        <v>33.4</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D187" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E187" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F187" s="6"/>
+    </row>
+    <row r="188" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B188" s="3">
+        <v>34</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D188" s="12"/>
+      <c r="E188" s="12"/>
+      <c r="F188" s="12"/>
+    </row>
+    <row r="189" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B189" s="6">
         <v>34.1</v>
       </c>
-      <c r="C187" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D187" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="E187" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="F187" s="6"/>
-    </row>
-    <row r="188" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B188" s="6">
-        <v>34.200000000000003</v>
-      </c>
-      <c r="C188" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D188" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E188" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F188" s="6"/>
-    </row>
-    <row r="189" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B189" s="3">
-        <v>35</v>
-      </c>
-      <c r="C189" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D189" s="12"/>
-      <c r="E189" s="12"/>
-      <c r="F189" s="12"/>
+      <c r="C189" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="D189" s="5"/>
+      <c r="E189" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="F189" s="6"/>
     </row>
     <row r="190" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B190" s="6">
-        <v>35.1</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D190" s="18" t="s">
-        <v>340</v>
+        <v>142</v>
+      </c>
+      <c r="D190" s="5" t="s">
+        <v>333</v>
       </c>
       <c r="E190" s="5" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F190" s="6"/>
     </row>
     <row r="191" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B191" s="6">
-        <v>35.200000000000003</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="C191" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="D191" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="E191" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="F191" s="6"/>
+    </row>
+    <row r="192" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B192" s="19">
+        <v>34.4</v>
+      </c>
+      <c r="C192" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D191" s="5" t="s">
+      <c r="D192" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E191" s="5" t="s">
+      <c r="E192" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F191" s="6"/>
-    </row>
-    <row r="192" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B192" s="3">
-        <v>36</v>
-      </c>
-      <c r="C192" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D192" s="12"/>
-      <c r="E192" s="12"/>
-      <c r="F192" s="12"/>
+      <c r="F192" s="6"/>
     </row>
     <row r="193" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B193" s="6">
-        <v>36.1</v>
-      </c>
-      <c r="C193" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D193" s="6"/>
-      <c r="E193" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F193" s="6"/>
+      <c r="B193" s="3">
+        <v>35</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D193" s="12"/>
+      <c r="E193" s="12"/>
+      <c r="F193" s="12"/>
     </row>
     <row r="194" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B194" s="6">
-        <v>36.200000000000003</v>
+        <v>35.1</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D194" s="5" t="s">
-        <v>346</v>
+        <v>144</v>
+      </c>
+      <c r="D194" s="18" t="s">
+        <v>340</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="F194" s="6"/>
     </row>
     <row r="195" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B195" s="6">
-        <v>36.299999999999997</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="C195" s="5" t="s">
         <v>14</v>
@@ -4624,10 +4669,10 @@
     </row>
     <row r="196" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B196" s="3">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D196" s="12"/>
       <c r="E196" s="12"/>
@@ -4635,7 +4680,7 @@
     </row>
     <row r="197" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B197" s="6">
-        <v>37.1</v>
+        <v>36.1</v>
       </c>
       <c r="C197" s="5" t="s">
         <v>6</v>
@@ -4648,544 +4693,544 @@
     </row>
     <row r="198" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B198" s="6">
-        <v>37.200000000000003</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="E198" s="5" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="F198" s="6"/>
     </row>
     <row r="199" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B199" s="6">
-        <v>37.299999999999997</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>357</v>
+        <v>14</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>345</v>
+        <v>0</v>
       </c>
       <c r="E199" s="5" t="s">
-        <v>353</v>
+        <v>15</v>
       </c>
       <c r="F199" s="6"/>
     </row>
     <row r="200" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B200" s="6">
-        <v>37.4</v>
-      </c>
-      <c r="C200" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D200" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E200" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F200" s="6"/>
+      <c r="B200" s="3">
+        <v>37</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D200" s="12"/>
+      <c r="E200" s="12"/>
+      <c r="F200" s="12"/>
     </row>
     <row r="201" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B201" s="3">
-        <v>38</v>
-      </c>
-      <c r="C201" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D201" s="12"/>
-      <c r="E201" s="12"/>
-      <c r="F201" s="12"/>
+      <c r="B201" s="6">
+        <v>37.1</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D201" s="6"/>
+      <c r="E201" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F201" s="6"/>
     </row>
     <row r="202" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B202" s="6">
-        <v>38.1</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="F202" s="6"/>
     </row>
     <row r="203" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B203" s="6">
-        <v>38.200000000000003</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="C203" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="D203" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="E203" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="F203" s="6"/>
+    </row>
+    <row r="204" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B204" s="6">
+        <v>37.4</v>
+      </c>
+      <c r="C204" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D203" s="5" t="s">
+      <c r="D204" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E203" s="5" t="s">
+      <c r="E204" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F203" s="6"/>
-    </row>
-    <row r="204" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B204" s="3">
-        <v>39</v>
-      </c>
-      <c r="C204" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D204" s="12"/>
-      <c r="E204" s="12"/>
-      <c r="F204" s="12"/>
+      <c r="F204" s="6"/>
     </row>
     <row r="205" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B205" s="6">
-        <v>39.1</v>
-      </c>
-      <c r="C205" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D205" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="E205" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="F205" s="6"/>
+      <c r="B205" s="3">
+        <v>38</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D205" s="12"/>
+      <c r="E205" s="12"/>
+      <c r="F205" s="12"/>
     </row>
     <row r="206" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B206" s="6">
-        <v>39.200000000000003</v>
+        <v>38.1</v>
       </c>
       <c r="C206" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D206" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="E206" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="F206" s="6"/>
+    </row>
+    <row r="207" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B207" s="6">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="C207" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D206" s="5" t="s">
+      <c r="D207" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E206" s="5" t="s">
+      <c r="E207" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F206" s="6"/>
-    </row>
-    <row r="207" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B207" s="3">
-        <v>40</v>
-      </c>
-      <c r="C207" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D207" s="12"/>
-      <c r="E207" s="12"/>
-      <c r="F207" s="12"/>
+      <c r="F207" s="6"/>
     </row>
     <row r="208" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B208" s="6">
-        <v>40.1</v>
-      </c>
-      <c r="C208" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D208" s="6"/>
-      <c r="E208" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F208" s="6"/>
+      <c r="B208" s="3">
+        <v>39</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D208" s="12"/>
+      <c r="E208" s="12"/>
+      <c r="F208" s="12"/>
     </row>
     <row r="209" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B209" s="6">
-        <v>40.200000000000003</v>
+        <v>39.1</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D209" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="E209" s="6" t="s">
-        <v>322</v>
+        <v>349</v>
+      </c>
+      <c r="E209" s="5" t="s">
+        <v>342</v>
       </c>
       <c r="F209" s="6"/>
     </row>
     <row r="210" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B210" s="6">
-        <v>40.299999999999997</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>155</v>
+        <v>14</v>
       </c>
       <c r="D210" s="5" t="s">
-        <v>351</v>
+        <v>0</v>
       </c>
       <c r="E210" s="5" t="s">
-        <v>339</v>
+        <v>15</v>
       </c>
       <c r="F210" s="6"/>
     </row>
     <row r="211" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B211" s="6">
-        <v>40.4</v>
-      </c>
-      <c r="C211" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D211" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E211" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F211" s="6"/>
+      <c r="B211" s="3">
+        <v>40</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D211" s="12"/>
+      <c r="E211" s="12"/>
+      <c r="F211" s="12"/>
     </row>
     <row r="212" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B212" s="3">
-        <v>41</v>
-      </c>
-      <c r="C212" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D212" s="12"/>
-      <c r="E212" s="12"/>
-      <c r="F212" s="12"/>
+      <c r="B212" s="6">
+        <v>40.1</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D212" s="6"/>
+      <c r="E212" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F212" s="6"/>
     </row>
     <row r="213" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B213" s="6">
-        <v>41.1</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D213" s="6"/>
-      <c r="E213" s="5" t="s">
-        <v>8</v>
+        <v>154</v>
+      </c>
+      <c r="D213" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="E213" s="6" t="s">
+        <v>322</v>
       </c>
       <c r="F213" s="6"/>
     </row>
     <row r="214" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B214" s="6">
-        <v>41.2</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="E214" s="6" t="s">
-        <v>322</v>
+        <v>351</v>
+      </c>
+      <c r="E214" s="5" t="s">
+        <v>339</v>
       </c>
       <c r="F214" s="6"/>
     </row>
     <row r="215" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B215" s="6">
-        <v>41.3</v>
+        <v>40.4</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>356</v>
+        <v>14</v>
       </c>
       <c r="D215" s="5" t="s">
-        <v>351</v>
+        <v>0</v>
       </c>
       <c r="E215" s="5" t="s">
-        <v>352</v>
+        <v>15</v>
       </c>
       <c r="F215" s="6"/>
     </row>
     <row r="216" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B216" s="6">
-        <v>41.4</v>
-      </c>
-      <c r="C216" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D216" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E216" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F216" s="6"/>
+      <c r="B216" s="3">
+        <v>41</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D216" s="12"/>
+      <c r="E216" s="12"/>
+      <c r="F216" s="12"/>
     </row>
     <row r="217" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B217" s="3">
-        <v>42</v>
-      </c>
-      <c r="C217" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D217" s="12"/>
-      <c r="E217" s="12"/>
-      <c r="F217" s="12"/>
+      <c r="B217" s="6">
+        <v>41.1</v>
+      </c>
+      <c r="C217" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D217" s="6"/>
+      <c r="E217" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F217" s="6"/>
     </row>
     <row r="218" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B218" s="6">
-        <v>42.1</v>
+        <v>41.2</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="E218" s="5" t="s">
-        <v>354</v>
+        <v>350</v>
+      </c>
+      <c r="E218" s="6" t="s">
+        <v>322</v>
       </c>
       <c r="F218" s="6"/>
     </row>
     <row r="219" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B219" s="6">
-        <v>42.2</v>
+        <v>41.3</v>
       </c>
       <c r="C219" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="D219" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="E219" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="F219" s="6"/>
+    </row>
+    <row r="220" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B220" s="6">
+        <v>41.4</v>
+      </c>
+      <c r="C220" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D219" s="5" t="s">
+      <c r="D220" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E219" s="5" t="s">
+      <c r="E220" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F219" s="6"/>
-    </row>
-    <row r="220" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B220" s="3">
-        <v>43</v>
-      </c>
-      <c r="C220" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D220" s="12"/>
-      <c r="E220" s="12"/>
-      <c r="F220" s="12"/>
+      <c r="F220" s="6"/>
     </row>
     <row r="221" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B221" s="6">
-        <v>43.1</v>
-      </c>
-      <c r="C221" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D221" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="E221" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="F221" s="6"/>
+      <c r="B221" s="3">
+        <v>42</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D221" s="12"/>
+      <c r="E221" s="12"/>
+      <c r="F221" s="12"/>
     </row>
     <row r="222" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B222" s="6">
-        <v>43.2</v>
+        <v>42.1</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D222" s="5" t="s">
-        <v>0</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="D222" s="5"/>
       <c r="E222" s="5" t="s">
-        <v>15</v>
+        <v>415</v>
       </c>
       <c r="F222" s="6"/>
     </row>
     <row r="223" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B223" s="3">
-        <v>44</v>
-      </c>
-      <c r="C223" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D223" s="12"/>
-      <c r="E223" s="12"/>
-      <c r="F223" s="12"/>
+      <c r="B223" s="6">
+        <v>42.2</v>
+      </c>
+      <c r="C223" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D223" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="E223" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="F223" s="6"/>
     </row>
     <row r="224" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B224" s="6">
-        <v>44.1</v>
+        <v>42.3</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D224" s="6"/>
+        <v>416</v>
+      </c>
+      <c r="D224" s="5" t="s">
+        <v>351</v>
+      </c>
       <c r="E224" s="5" t="s">
-        <v>8</v>
+        <v>417</v>
       </c>
       <c r="F224" s="6"/>
     </row>
     <row r="225" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B225" s="6">
-        <v>44.2</v>
+      <c r="B225" s="19">
+        <v>42.4</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>161</v>
+        <v>14</v>
       </c>
       <c r="D225" s="5" t="s">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="E225" s="5" t="s">
-        <v>361</v>
+        <v>15</v>
       </c>
       <c r="F225" s="6"/>
     </row>
     <row r="226" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B226" s="6">
-        <v>44.3</v>
-      </c>
-      <c r="C226" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D226" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E226" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F226" s="6"/>
+      <c r="B226" s="3">
+        <v>43</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D226" s="12"/>
+      <c r="E226" s="12"/>
+      <c r="F226" s="12"/>
     </row>
     <row r="227" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B227" s="3">
-        <v>45</v>
-      </c>
-      <c r="C227" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D227" s="12"/>
-      <c r="E227" s="12"/>
-      <c r="F227" s="12"/>
+      <c r="B227" s="6">
+        <v>43.1</v>
+      </c>
+      <c r="C227" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D227" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="E227" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="F227" s="6"/>
     </row>
     <row r="228" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B228" s="6">
-        <v>45.1</v>
+        <v>43.2</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D228" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="D228" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="E228" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F228" s="6"/>
     </row>
     <row r="229" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B229" s="6">
-        <v>45.2</v>
-      </c>
-      <c r="C229" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="D229" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="E229" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="F229" s="6"/>
+      <c r="B229" s="3">
+        <v>44</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D229" s="12"/>
+      <c r="E229" s="12"/>
+      <c r="F229" s="12"/>
     </row>
     <row r="230" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B230" s="6">
-        <v>45.3</v>
+        <v>44.1</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="D230" s="5" t="s">
-        <v>363</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D230" s="6"/>
       <c r="E230" s="5" t="s">
-        <v>364</v>
+        <v>8</v>
       </c>
       <c r="F230" s="6"/>
     </row>
     <row r="231" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B231" s="6">
-        <v>45.4</v>
+        <v>44.2</v>
       </c>
       <c r="C231" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D231" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="E231" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="F231" s="6"/>
+    </row>
+    <row r="232" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B232" s="6">
+        <v>44.3</v>
+      </c>
+      <c r="C232" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D231" s="5" t="s">
+      <c r="D232" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E231" s="5" t="s">
+      <c r="E232" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F231" s="6"/>
-    </row>
-    <row r="232" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B232" s="3">
-        <v>46</v>
-      </c>
-      <c r="C232" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D232" s="12"/>
-      <c r="E232" s="12"/>
-      <c r="F232" s="12"/>
+      <c r="F232" s="6"/>
     </row>
     <row r="233" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B233" s="6">
-        <v>46.1</v>
-      </c>
-      <c r="C233" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D233" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="E233" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="F233" s="6"/>
+      <c r="B233" s="3">
+        <v>45</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D233" s="12"/>
+      <c r="E233" s="12"/>
+      <c r="F233" s="12"/>
     </row>
     <row r="234" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B234" s="6">
-        <v>46.2</v>
+        <v>45.1</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D234" s="5" t="s">
-        <v>0</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D234" s="6"/>
       <c r="E234" s="5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F234" s="6"/>
     </row>
     <row r="235" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B235" s="3">
-        <v>47</v>
-      </c>
-      <c r="C235" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D235" s="12"/>
-      <c r="E235" s="12"/>
-      <c r="F235" s="12"/>
+      <c r="B235" s="6">
+        <v>45.2</v>
+      </c>
+      <c r="C235" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D235" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="E235" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="F235" s="6"/>
     </row>
     <row r="236" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B236" s="6">
-        <v>47.1</v>
+        <v>45.3</v>
       </c>
       <c r="C236" s="5" t="s">
-        <v>167</v>
+        <v>355</v>
       </c>
       <c r="D236" s="5" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="E236" s="5" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F236" s="6"/>
     </row>
     <row r="237" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B237" s="6">
-        <v>47.2</v>
+        <v>45.4</v>
       </c>
       <c r="C237" s="5" t="s">
         <v>14</v>
@@ -5200,10 +5245,10 @@
     </row>
     <row r="238" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B238" s="3">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D238" s="12"/>
       <c r="E238" s="12"/>
@@ -5211,201 +5256,201 @@
     </row>
     <row r="239" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B239" s="6">
-        <v>48.1</v>
+        <v>46.1</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D239" s="6"/>
+        <v>165</v>
+      </c>
+      <c r="D239" s="5" t="s">
+        <v>365</v>
+      </c>
       <c r="E239" s="5" t="s">
-        <v>8</v>
+        <v>366</v>
       </c>
       <c r="F239" s="6"/>
     </row>
     <row r="240" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B240" s="6">
-        <v>48.2</v>
+        <v>46.2</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>173</v>
+        <v>14</v>
       </c>
       <c r="D240" s="5" t="s">
-        <v>369</v>
+        <v>0</v>
       </c>
       <c r="E240" s="5" t="s">
-        <v>375</v>
+        <v>15</v>
       </c>
       <c r="F240" s="6"/>
     </row>
     <row r="241" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B241" s="6">
-        <v>48.3</v>
-      </c>
-      <c r="C241" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D241" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="E241" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="F241" s="6"/>
+      <c r="B241" s="3">
+        <v>47</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D241" s="12"/>
+      <c r="E241" s="12"/>
+      <c r="F241" s="12"/>
     </row>
     <row r="242" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B242" s="6">
-        <v>48.4</v>
+        <v>47.1</v>
       </c>
       <c r="C242" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D242" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="E242" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="F242" s="6"/>
+    </row>
+    <row r="243" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B243" s="6">
+        <v>47.2</v>
+      </c>
+      <c r="C243" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D242" s="5" t="s">
+      <c r="D243" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E242" s="5" t="s">
+      <c r="E243" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F242" s="6"/>
-    </row>
-    <row r="243" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B243" s="3">
-        <v>49</v>
-      </c>
-      <c r="C243" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D243" s="12"/>
-      <c r="E243" s="12"/>
-      <c r="F243" s="12"/>
+      <c r="F243" s="6"/>
     </row>
     <row r="244" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B244" s="6">
-        <v>49.1</v>
-      </c>
-      <c r="C244" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D244" s="6"/>
-      <c r="E244" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F244" s="6"/>
+      <c r="B244" s="3">
+        <v>48</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D244" s="12"/>
+      <c r="E244" s="12"/>
+      <c r="F244" s="12"/>
     </row>
     <row r="245" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B245" s="6">
-        <v>49.2</v>
+        <v>48.1</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="D245" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="E245" s="6" t="s">
-        <v>375</v>
+        <v>6</v>
+      </c>
+      <c r="D245" s="6"/>
+      <c r="E245" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="F245" s="6"/>
     </row>
     <row r="246" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B246" s="6">
-        <v>49.3</v>
+        <v>48.2</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>109</v>
+        <v>173</v>
       </c>
       <c r="D246" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E246" s="5" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F246" s="6"/>
     </row>
     <row r="247" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B247" s="6">
-        <v>49.4</v>
+        <v>48.3</v>
       </c>
       <c r="C247" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D247" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="E247" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="F247" s="6"/>
+    </row>
+    <row r="248" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B248" s="6">
+        <v>48.4</v>
+      </c>
+      <c r="C248" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D247" s="5" t="s">
+      <c r="D248" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E247" s="5" t="s">
+      <c r="E248" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F247" s="6"/>
-    </row>
-    <row r="248" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B248" s="3">
-        <v>50</v>
-      </c>
-      <c r="C248" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D248" s="12"/>
-      <c r="E248" s="12"/>
-      <c r="F248" s="12"/>
+      <c r="F248" s="6"/>
     </row>
     <row r="249" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B249" s="6">
-        <v>50.1</v>
-      </c>
-      <c r="C249" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="D249" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="E249" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="F249" s="6"/>
+      <c r="B249" s="3">
+        <v>49</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D249" s="12"/>
+      <c r="E249" s="12"/>
+      <c r="F249" s="12"/>
     </row>
     <row r="250" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B250" s="6">
-        <v>50.2</v>
+        <v>49.1</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D250" s="5" t="s">
-        <v>0</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D250" s="6"/>
       <c r="E250" s="5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F250" s="6"/>
     </row>
     <row r="251" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B251" s="3">
-        <v>51</v>
-      </c>
-      <c r="C251" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D251" s="12"/>
-      <c r="E251" s="12"/>
-      <c r="F251" s="12"/>
+      <c r="B251" s="6">
+        <v>49.2</v>
+      </c>
+      <c r="C251" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D251" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="E251" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="F251" s="6"/>
     </row>
     <row r="252" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B252" s="6">
-        <v>51.1</v>
+        <v>49.3</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>175</v>
+        <v>109</v>
       </c>
       <c r="D252" s="5" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E252" s="5" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="F252" s="6"/>
     </row>
     <row r="253" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B253" s="6">
-        <v>51.2</v>
+        <v>49.4</v>
       </c>
       <c r="C253" s="5" t="s">
         <v>14</v>
@@ -5420,10 +5465,10 @@
     </row>
     <row r="254" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B254" s="3">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D254" s="12"/>
       <c r="E254" s="12"/>
@@ -5431,763 +5476,803 @@
     </row>
     <row r="255" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B255" s="6">
-        <v>52.1</v>
+        <v>50.1</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D255" s="6"/>
+        <v>172</v>
+      </c>
+      <c r="D255" s="5" t="s">
+        <v>373</v>
+      </c>
       <c r="E255" s="5" t="s">
-        <v>8</v>
+        <v>374</v>
       </c>
       <c r="F255" s="6"/>
     </row>
     <row r="256" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B256" s="6">
-        <v>52.2</v>
+        <v>50.2</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>173</v>
+        <v>14</v>
       </c>
       <c r="D256" s="5" t="s">
-        <v>379</v>
+        <v>0</v>
       </c>
       <c r="E256" s="5" t="s">
-        <v>375</v>
+        <v>15</v>
       </c>
       <c r="F256" s="6"/>
     </row>
     <row r="257" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B257" s="6">
-        <v>52.3</v>
-      </c>
-      <c r="C257" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="D257" s="5"/>
-      <c r="E257" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="F257" s="6"/>
+      <c r="B257" s="3">
+        <v>51</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D257" s="12"/>
+      <c r="E257" s="12"/>
+      <c r="F257" s="12"/>
     </row>
     <row r="258" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B258" s="6">
-        <v>52.4</v>
+        <v>51.1</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="D258" s="5"/>
+        <v>175</v>
+      </c>
+      <c r="D258" s="5" t="s">
+        <v>376</v>
+      </c>
       <c r="E258" s="5" t="s">
-        <v>412</v>
+        <v>377</v>
       </c>
       <c r="F258" s="6"/>
     </row>
     <row r="259" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B259" s="6">
-        <v>52.5</v>
+        <v>51.2</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="D259" s="5" t="s">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="E259" s="5" t="s">
-        <v>378</v>
+        <v>15</v>
       </c>
       <c r="F259" s="6"/>
     </row>
     <row r="260" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B260" s="6">
-        <v>52.6</v>
-      </c>
-      <c r="C260" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D260" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E260" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F260" s="6"/>
+      <c r="B260" s="3">
+        <v>52</v>
+      </c>
+      <c r="C260" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D260" s="12"/>
+      <c r="E260" s="12"/>
+      <c r="F260" s="12"/>
     </row>
     <row r="261" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B261" s="3">
-        <v>53</v>
-      </c>
-      <c r="C261" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D261" s="12"/>
-      <c r="E261" s="12"/>
-      <c r="F261" s="12"/>
+      <c r="B261" s="6">
+        <v>52.1</v>
+      </c>
+      <c r="C261" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D261" s="6"/>
+      <c r="E261" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F261" s="6"/>
     </row>
     <row r="262" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B262" s="6">
-        <v>53.1</v>
+        <v>52.2</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D262" s="6"/>
+        <v>173</v>
+      </c>
+      <c r="D262" s="5" t="s">
+        <v>379</v>
+      </c>
       <c r="E262" s="5" t="s">
-        <v>8</v>
+        <v>375</v>
       </c>
       <c r="F262" s="6"/>
     </row>
     <row r="263" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B263" s="6">
-        <v>53.2</v>
+        <v>52.3</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="D263" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="E263" s="6" t="s">
-        <v>375</v>
+        <v>411</v>
+      </c>
+      <c r="D263" s="5"/>
+      <c r="E263" s="5" t="s">
+        <v>412</v>
       </c>
       <c r="F263" s="6"/>
     </row>
     <row r="264" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B264" s="6">
-        <v>53.3</v>
+        <v>52.4</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D264" s="5" t="s">
-        <v>370</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="D264" s="5"/>
       <c r="E264" s="5" t="s">
-        <v>380</v>
+        <v>412</v>
       </c>
       <c r="F264" s="6"/>
     </row>
     <row r="265" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B265" s="6">
-        <v>53.4</v>
+        <v>52.5</v>
       </c>
       <c r="C265" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D265" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="E265" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="F265" s="6"/>
+    </row>
+    <row r="266" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B266" s="6">
+        <v>52.6</v>
+      </c>
+      <c r="C266" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D265" s="5" t="s">
+      <c r="D266" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E265" s="5" t="s">
+      <c r="E266" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F265" s="6"/>
-    </row>
-    <row r="266" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B266" s="3">
-        <v>54</v>
-      </c>
-      <c r="C266" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D266" s="12"/>
-      <c r="E266" s="12"/>
-      <c r="F266" s="12"/>
+      <c r="F266" s="6"/>
     </row>
     <row r="267" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B267" s="6">
-        <v>54.1</v>
-      </c>
-      <c r="C267" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="D267" s="5"/>
-      <c r="E267" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="F267" s="6"/>
+      <c r="B267" s="3">
+        <v>53</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D267" s="12"/>
+      <c r="E267" s="12"/>
+      <c r="F267" s="12"/>
     </row>
     <row r="268" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B268" s="6">
-        <v>54.2</v>
+        <v>53.1</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="D268" s="5" t="s">
-        <v>381</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D268" s="6"/>
       <c r="E268" s="5" t="s">
-        <v>382</v>
+        <v>8</v>
       </c>
       <c r="F268" s="6"/>
     </row>
     <row r="269" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B269" s="6">
-        <v>54.3</v>
+        <v>53.2</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="D269" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E269" s="5" t="s">
-        <v>15</v>
+        <v>379</v>
+      </c>
+      <c r="E269" s="6" t="s">
+        <v>375</v>
       </c>
       <c r="F269" s="6"/>
     </row>
     <row r="270" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B270" s="3">
-        <v>55</v>
-      </c>
-      <c r="C270" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D270" s="12"/>
-      <c r="E270" s="12"/>
-      <c r="F270" s="12"/>
+      <c r="B270" s="6">
+        <v>53.3</v>
+      </c>
+      <c r="C270" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D270" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="E270" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="F270" s="6"/>
     </row>
     <row r="271" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B271" s="6">
-        <v>55.1</v>
+        <v>53.4</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>182</v>
+        <v>14</v>
       </c>
       <c r="D271" s="5" t="s">
-        <v>383</v>
+        <v>0</v>
       </c>
       <c r="E271" s="5" t="s">
-        <v>384</v>
+        <v>15</v>
       </c>
       <c r="F271" s="6"/>
     </row>
     <row r="272" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B272" s="6">
-        <v>55.2</v>
-      </c>
-      <c r="C272" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D272" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E272" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F272" s="6"/>
+      <c r="B272" s="3">
+        <v>54</v>
+      </c>
+      <c r="C272" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D272" s="12"/>
+      <c r="E272" s="12"/>
+      <c r="F272" s="12"/>
     </row>
     <row r="273" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B273" s="3">
-        <v>56</v>
-      </c>
-      <c r="C273" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D273" s="12"/>
-      <c r="E273" s="12"/>
-      <c r="F273" s="12"/>
+      <c r="B273" s="6">
+        <v>54.1</v>
+      </c>
+      <c r="C273" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="D273" s="5"/>
+      <c r="E273" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="F273" s="6"/>
     </row>
     <row r="274" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B274" s="6">
-        <v>56.1</v>
+        <v>54.2</v>
       </c>
       <c r="C274" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D274" s="6"/>
+        <v>180</v>
+      </c>
+      <c r="D274" s="5" t="s">
+        <v>381</v>
+      </c>
       <c r="E274" s="5" t="s">
-        <v>8</v>
+        <v>382</v>
       </c>
       <c r="F274" s="6"/>
     </row>
     <row r="275" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B275" s="6">
-        <v>56.2</v>
+        <v>54.3</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>188</v>
+        <v>14</v>
       </c>
       <c r="D275" s="5" t="s">
-        <v>385</v>
+        <v>0</v>
       </c>
       <c r="E275" s="5" t="s">
-        <v>375</v>
+        <v>15</v>
       </c>
       <c r="F275" s="6"/>
     </row>
     <row r="276" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B276" s="6">
-        <v>56.3</v>
-      </c>
-      <c r="C276" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D276" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="E276" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="F276" s="6"/>
+      <c r="B276" s="3">
+        <v>55</v>
+      </c>
+      <c r="C276" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D276" s="12"/>
+      <c r="E276" s="12"/>
+      <c r="F276" s="12"/>
     </row>
     <row r="277" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B277" s="6">
-        <v>56.4</v>
+        <v>55.1</v>
       </c>
       <c r="C277" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D277" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="E277" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="F277" s="6"/>
+    </row>
+    <row r="278" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B278" s="6">
+        <v>55.2</v>
+      </c>
+      <c r="C278" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D277" s="5" t="s">
+      <c r="D278" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E277" s="5" t="s">
+      <c r="E278" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F277" s="6"/>
-    </row>
-    <row r="278" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B278" s="3">
-        <v>57</v>
-      </c>
-      <c r="C278" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D278" s="12"/>
-      <c r="E278" s="12"/>
-      <c r="F278" s="12"/>
+      <c r="F278" s="6"/>
     </row>
     <row r="279" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B279" s="6">
-        <v>57.1</v>
-      </c>
-      <c r="C279" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D279" s="6"/>
-      <c r="E279" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F279" s="6"/>
+      <c r="B279" s="3">
+        <v>56</v>
+      </c>
+      <c r="C279" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D279" s="12"/>
+      <c r="E279" s="12"/>
+      <c r="F279" s="12"/>
     </row>
     <row r="280" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B280" s="6">
-        <v>57.2</v>
+        <v>56.1</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="D280" s="5" t="s">
-        <v>385</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D280" s="6"/>
       <c r="E280" s="5" t="s">
-        <v>375</v>
+        <v>8</v>
       </c>
       <c r="F280" s="6"/>
     </row>
     <row r="281" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B281" s="6">
-        <v>57.3</v>
+        <v>56.2</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>109</v>
+        <v>188</v>
       </c>
       <c r="D281" s="5" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="E281" s="5" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="F281" s="6"/>
     </row>
     <row r="282" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B282" s="6">
-        <v>57.4</v>
+        <v>56.3</v>
       </c>
       <c r="C282" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D282" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="E282" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="F282" s="6"/>
+    </row>
+    <row r="283" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B283" s="6">
+        <v>56.4</v>
+      </c>
+      <c r="C283" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D282" s="5" t="s">
+      <c r="D283" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E282" s="5" t="s">
+      <c r="E283" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F282" s="6"/>
-    </row>
-    <row r="283" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B283" s="3">
-        <v>58</v>
-      </c>
-      <c r="C283" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D283" s="12"/>
-      <c r="E283" s="12"/>
-      <c r="F283" s="12"/>
+      <c r="F283" s="6"/>
     </row>
     <row r="284" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B284" s="6">
-        <v>58.1</v>
-      </c>
-      <c r="C284" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="D284" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="E284" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="F284" s="6"/>
+      <c r="B284" s="3">
+        <v>57</v>
+      </c>
+      <c r="C284" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D284" s="12"/>
+      <c r="E284" s="12"/>
+      <c r="F284" s="12"/>
     </row>
     <row r="285" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B285" s="6">
-        <v>58.2</v>
+        <v>57.1</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D285" s="5" t="s">
-        <v>0</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D285" s="6"/>
       <c r="E285" s="5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F285" s="6"/>
     </row>
     <row r="286" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B286" s="3">
-        <v>59</v>
-      </c>
-      <c r="C286" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D286" s="3"/>
-      <c r="E286" s="3"/>
-      <c r="F286" s="3"/>
+      <c r="B286" s="6">
+        <v>57.2</v>
+      </c>
+      <c r="C286" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D286" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="E286" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="F286" s="6"/>
     </row>
     <row r="287" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B287" s="6">
-        <v>59.1</v>
+        <v>57.3</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>191</v>
+        <v>109</v>
       </c>
       <c r="D287" s="5" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="E287" s="5" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F287" s="6"/>
     </row>
     <row r="288" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B288" s="6">
-        <v>59.2</v>
+        <v>57.4</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>198</v>
+        <v>14</v>
       </c>
       <c r="D288" s="5" t="s">
-        <v>392</v>
+        <v>0</v>
       </c>
       <c r="E288" s="5" t="s">
-        <v>393</v>
+        <v>15</v>
       </c>
       <c r="F288" s="6"/>
     </row>
     <row r="289" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B289" s="6">
-        <v>59.3</v>
-      </c>
-      <c r="C289" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D289" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E289" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F289" s="6"/>
+      <c r="B289" s="3">
+        <v>58</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D289" s="12"/>
+      <c r="E289" s="12"/>
+      <c r="F289" s="12"/>
     </row>
     <row r="290" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B290" s="3">
-        <v>60</v>
-      </c>
-      <c r="C290" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D290" s="12"/>
-      <c r="E290" s="12"/>
-      <c r="F290" s="12"/>
+      <c r="B290" s="6">
+        <v>58.1</v>
+      </c>
+      <c r="C290" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D290" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="E290" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="F290" s="6"/>
     </row>
     <row r="291" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B291" s="6">
-        <v>60.1</v>
+        <v>58.2</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D291" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="D291" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="E291" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F291" s="6"/>
     </row>
     <row r="292" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B292" s="6">
-        <v>60.2</v>
-      </c>
-      <c r="C292" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="D292" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="E292" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F292" s="6"/>
-    </row>
-    <row r="293" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B292" s="3">
+        <v>59</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D292" s="3"/>
+      <c r="E292" s="3"/>
+      <c r="F292" s="3"/>
+    </row>
+    <row r="293" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B293" s="6">
-        <v>60.3</v>
+        <v>59.1</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D293" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="E293" s="9" t="s">
-        <v>396</v>
+        <v>390</v>
+      </c>
+      <c r="E293" s="5" t="s">
+        <v>391</v>
       </c>
       <c r="F293" s="6"/>
     </row>
     <row r="294" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B294" s="6">
-        <v>60.4</v>
+        <v>59.2</v>
       </c>
       <c r="C294" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D294" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="E294" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="F294" s="6"/>
+    </row>
+    <row r="295" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B295" s="6">
+        <v>59.3</v>
+      </c>
+      <c r="C295" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D294" s="5" t="s">
+      <c r="D295" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E294" s="5" t="s">
+      <c r="E295" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F294" s="6"/>
-    </row>
-    <row r="295" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B295" s="3">
-        <v>61</v>
-      </c>
-      <c r="C295" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D295" s="12"/>
-      <c r="E295" s="12"/>
-      <c r="F295" s="12"/>
+      <c r="F295" s="6"/>
     </row>
     <row r="296" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B296" s="6">
-        <v>61.1</v>
-      </c>
-      <c r="C296" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D296" s="6"/>
-      <c r="E296" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F296" s="6"/>
+      <c r="B296" s="3">
+        <v>60</v>
+      </c>
+      <c r="C296" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D296" s="12"/>
+      <c r="E296" s="12"/>
+      <c r="F296" s="12"/>
     </row>
     <row r="297" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B297" s="6">
-        <v>61.2</v>
+        <v>60.1</v>
       </c>
       <c r="C297" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D297" s="6"/>
+      <c r="E297" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F297" s="6"/>
+    </row>
+    <row r="298" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B298" s="6">
+        <v>60.2</v>
+      </c>
+      <c r="C298" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="D297" s="5" t="s">
+      <c r="D298" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="E297" s="5" t="s">
+      <c r="E298" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F297" s="6"/>
-    </row>
-    <row r="298" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B298" s="6">
-        <v>61.3</v>
-      </c>
-      <c r="C298" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D298" s="5" t="s">
+      <c r="F298" s="6"/>
+    </row>
+    <row r="299" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B299" s="6">
+        <v>60.3</v>
+      </c>
+      <c r="C299" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D299" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="E298" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="F298" s="6"/>
-    </row>
-    <row r="299" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B299" s="6">
-        <v>61.4</v>
-      </c>
-      <c r="C299" s="5" t="s">
+      <c r="E299" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="F299" s="6"/>
+    </row>
+    <row r="300" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B300" s="6">
+        <v>60.4</v>
+      </c>
+      <c r="C300" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D299" s="5" t="s">
+      <c r="D300" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E299" s="5" t="s">
+      <c r="E300" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F299" s="6"/>
-    </row>
-    <row r="300" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B300" s="3">
-        <v>62</v>
-      </c>
-      <c r="C300" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D300" s="12"/>
-      <c r="E300" s="12"/>
-      <c r="F300" s="12"/>
+      <c r="F300" s="6"/>
     </row>
     <row r="301" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B301" s="6">
-        <v>62.1</v>
-      </c>
-      <c r="C301" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="D301" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="E301" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="F301" s="6"/>
+      <c r="B301" s="3">
+        <v>61</v>
+      </c>
+      <c r="C301" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D301" s="12"/>
+      <c r="E301" s="12"/>
+      <c r="F301" s="12"/>
     </row>
     <row r="302" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B302" s="6">
-        <v>62.2</v>
+        <v>61.1</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D302" s="5" t="s">
-        <v>0</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D302" s="6"/>
       <c r="E302" s="5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F302" s="6"/>
     </row>
-    <row r="303" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B303" s="3">
-        <v>63</v>
-      </c>
-      <c r="C303" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D303" s="3"/>
-      <c r="E303" s="3"/>
-      <c r="F303" s="3"/>
+    <row r="303" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B303" s="6">
+        <v>61.2</v>
+      </c>
+      <c r="C303" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D303" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="E303" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F303" s="6"/>
     </row>
     <row r="304" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B304" s="6">
-        <v>63.1</v>
+        <v>61.3</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>199</v>
+        <v>119</v>
       </c>
       <c r="D304" s="5" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="E304" s="9" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="F304" s="6"/>
     </row>
     <row r="305" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B305" s="6">
+        <v>61.4</v>
+      </c>
+      <c r="C305" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D305" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E305" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F305" s="6"/>
+    </row>
+    <row r="306" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B306" s="3">
+        <v>62</v>
+      </c>
+      <c r="C306" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D306" s="12"/>
+      <c r="E306" s="12"/>
+      <c r="F306" s="12"/>
+    </row>
+    <row r="307" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B307" s="6">
+        <v>62.1</v>
+      </c>
+      <c r="C307" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D307" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="E307" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="F307" s="6"/>
+    </row>
+    <row r="308" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B308" s="6">
+        <v>62.2</v>
+      </c>
+      <c r="C308" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D308" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E308" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F308" s="6"/>
+    </row>
+    <row r="309" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B309" s="3">
+        <v>63</v>
+      </c>
+      <c r="C309" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D309" s="3"/>
+      <c r="E309" s="3"/>
+      <c r="F309" s="3"/>
+    </row>
+    <row r="310" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B310" s="6">
+        <v>63.1</v>
+      </c>
+      <c r="C310" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D310" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="E310" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="F310" s="6"/>
+    </row>
+    <row r="311" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B311" s="6">
         <v>63.2</v>
       </c>
-      <c r="C305" s="5" t="s">
+      <c r="C311" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="D305" s="5" t="s">
+      <c r="D311" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="E305" s="5" t="s">
+      <c r="E311" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="F305" s="6"/>
-    </row>
-    <row r="306" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B306" s="6">
+      <c r="F311" s="6"/>
+    </row>
+    <row r="312" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B312" s="6">
         <v>63.3</v>
       </c>
-      <c r="C306" s="5" t="s">
+      <c r="C312" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D306" s="5" t="s">
+      <c r="D312" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E306" s="5" t="s">
+      <c r="E312" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F306" s="6"/>
-    </row>
-    <row r="307" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B307" s="1"/>
-      <c r="C307" s="1"/>
-      <c r="D307" s="1"/>
-      <c r="E307" s="1"/>
-      <c r="F307" s="1"/>
-    </row>
-    <row r="308" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B308" s="1"/>
-      <c r="C308" s="1"/>
-      <c r="D308" s="1"/>
-      <c r="E308" s="1"/>
-      <c r="F308" s="1"/>
-    </row>
-    <row r="309" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B309" s="1"/>
-      <c r="C309" s="1"/>
-      <c r="D309" s="1"/>
-      <c r="E309" s="1"/>
-      <c r="F309" s="1"/>
-    </row>
-    <row r="310" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B310" s="1"/>
-      <c r="C310" s="1"/>
-      <c r="D310" s="1"/>
-      <c r="E310" s="1"/>
-      <c r="F310" s="1"/>
-    </row>
-    <row r="311" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B311" s="1"/>
-      <c r="C311" s="1"/>
-      <c r="D311" s="1"/>
-      <c r="E311" s="1"/>
-      <c r="F311" s="1"/>
-    </row>
-    <row r="312" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B312" s="1"/>
-      <c r="C312" s="1"/>
-      <c r="D312" s="1"/>
-      <c r="E312" s="1"/>
-      <c r="F312" s="1"/>
+      <c r="F312" s="6"/>
     </row>
     <row r="313" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B313" s="1"/>
@@ -6195,6 +6280,48 @@
       <c r="D313" s="1"/>
       <c r="E313" s="1"/>
       <c r="F313" s="1"/>
+    </row>
+    <row r="314" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B314" s="1"/>
+      <c r="C314" s="1"/>
+      <c r="D314" s="1"/>
+      <c r="E314" s="1"/>
+      <c r="F314" s="1"/>
+    </row>
+    <row r="315" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B315" s="1"/>
+      <c r="C315" s="1"/>
+      <c r="D315" s="1"/>
+      <c r="E315" s="1"/>
+      <c r="F315" s="1"/>
+    </row>
+    <row r="316" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B316" s="1"/>
+      <c r="C316" s="1"/>
+      <c r="D316" s="1"/>
+      <c r="E316" s="1"/>
+      <c r="F316" s="1"/>
+    </row>
+    <row r="317" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B317" s="1"/>
+      <c r="C317" s="1"/>
+      <c r="D317" s="1"/>
+      <c r="E317" s="1"/>
+      <c r="F317" s="1"/>
+    </row>
+    <row r="318" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B318" s="1"/>
+      <c r="C318" s="1"/>
+      <c r="D318" s="1"/>
+      <c r="E318" s="1"/>
+      <c r="F318" s="1"/>
+    </row>
+    <row r="319" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B319" s="1"/>
+      <c r="C319" s="1"/>
+      <c r="D319" s="1"/>
+      <c r="E319" s="1"/>
+      <c r="F319" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
